--- a/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0893</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -830,64 +766,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -515,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/605222-起帆电缆.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -532,6 +549,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方碳中和股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方碳中和股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -947,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
